--- a/게임 디자인/DB/카드DB.xlsx
+++ b/게임 디자인/DB/카드DB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\EXLIX\DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity\Exlix\게임 디자인\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD1F099-B8B9-4908-8E85-4D67B2BE4BA0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71066F56-F86A-4B45-A52E-56DED1561EE6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14100" yWindow="1470" windowWidth="24255" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="44100" yWindow="2610" windowWidth="22110" windowHeight="10680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="50">
   <si>
     <t>속성</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -171,10 +171,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>005</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -220,6 +216,14 @@
   </si>
   <si>
     <t>3턴간 유저는 적에게 데미지를 입힐수도&lt;br/&gt;데미지를 입을수도 없다.&lt;br/&gt;(휘발성)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -608,8 +612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -643,7 +647,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>3</v>
@@ -667,7 +671,7 @@
         <v>22</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>5</v>
@@ -693,7 +697,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>11</v>
@@ -706,6 +710,9 @@
       </c>
       <c r="N2" s="6" t="s">
         <v>16</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
@@ -719,7 +726,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>23</v>
@@ -732,6 +739,9 @@
       </c>
       <c r="N3" s="6" t="s">
         <v>25</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="33" x14ac:dyDescent="0.3">
@@ -745,7 +755,7 @@
         <v>29</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>28</v>
@@ -761,6 +771,9 @@
       </c>
       <c r="O4" s="2" t="s">
         <v>31</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="33" x14ac:dyDescent="0.3">
@@ -774,7 +787,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>34</v>
@@ -792,12 +805,12 @@
         <v>25</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="33" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>9</v>
@@ -809,42 +822,45 @@
         <v>14</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M6" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="N6" s="6" t="s">
         <v>25</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>45</v>
-      </c>
       <c r="F7" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>14</v>
@@ -853,7 +869,7 @@
         <v>25</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
